--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дед хп\Source\Repos\NewRepo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="20115" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Type1</t>
   </si>
@@ -87,9 +92,6 @@
     <t>in</t>
   </si>
   <si>
-    <t>;#00008B</t>
-  </si>
-  <si>
     <t>60.023898</t>
   </si>
   <si>
@@ -103,12 +105,18 @@
   </si>
   <si>
     <t>black</t>
+  </si>
+  <si>
+    <t>LatitudeA</t>
+  </si>
+  <si>
+    <t>#00008B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,6 +176,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -215,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,8 +509,8 @@
       <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -531,22 +542,22 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3">
         <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -607,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -619,15 +630,21 @@
         <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дед хп\Source\Repos\NewRepo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
@@ -116,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +468,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +557,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43101</v>
+        <v>43106</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
